--- a/Exel_import/data_not_clean/SONDA_arriendo_notebook_508.xlsx
+++ b/Exel_import/data_not_clean/SONDA_arriendo_notebook_508.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Desktop\CAFTON\JUNJI\inventario-junji\Exel_import\data_not_clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8413FA-ABF4-4C76-8FA7-98A8E86B7225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74C4E09-9EC3-4EE2-ADD2-2951F0FC2E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SONDA_arriendo_notebook_508" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">SONDA_arriendo_notebook_508!$A$1:$O$43</definedName>
@@ -114,9 +113,6 @@
     <t>599-134-SE22</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>PF31A06T</t>
   </si>
   <si>
@@ -430,14 +426,25 @@
   </si>
   <si>
     <t>RALCO LEPOY</t>
+  </si>
+  <si>
+    <t>Direccion Regional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -465,9 +472,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2069D4C3-E739-42E7-873A-D7AD6951F029}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,10 +996,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
       <c r="I3">
         <v>14464971</v>
@@ -1000,7 +1008,7 @@
         <v>8106011</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -1035,10 +1043,10 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
       </c>
       <c r="I4">
         <v>16061612</v>
@@ -1047,7 +1055,7 @@
         <v>8311008</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -1082,10 +1090,10 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
       </c>
       <c r="I5">
         <v>11915148</v>
@@ -1094,7 +1102,7 @@
         <v>8205006</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -1129,10 +1137,10 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
       </c>
       <c r="I6">
         <v>13380432</v>
@@ -1141,7 +1149,7 @@
         <v>8107006</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -1176,10 +1184,10 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
       </c>
       <c r="I7">
         <v>15196025</v>
@@ -1188,7 +1196,7 @@
         <v>8202003</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -1223,10 +1231,10 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
         <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
       </c>
       <c r="I8">
         <v>12701693</v>
@@ -1235,7 +1243,7 @@
         <v>8107004</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -1270,10 +1278,10 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
       </c>
       <c r="I9">
         <v>9457313</v>
@@ -1282,7 +1290,7 @@
         <v>8108005</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -1317,10 +1325,10 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
       </c>
       <c r="I10">
         <v>14029457</v>
@@ -1329,7 +1337,7 @@
         <v>8111010</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
@@ -1364,10 +1372,10 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
         <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
       </c>
       <c r="I11">
         <v>14287921</v>
@@ -1376,7 +1384,7 @@
         <v>8204001</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -1411,10 +1419,10 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
         <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
       </c>
       <c r="I12">
         <v>11156235</v>
@@ -1423,7 +1431,7 @@
         <v>8205007</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -1458,10 +1466,10 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
         <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
       </c>
       <c r="I13">
         <v>16215280</v>
@@ -1470,10 +1478,10 @@
         <v>8301010</v>
       </c>
       <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
         <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>58</v>
       </c>
       <c r="M13" t="s">
         <v>23</v>
@@ -1505,10 +1513,10 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
         <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
       </c>
       <c r="I14">
         <v>13142637</v>
@@ -1517,7 +1525,7 @@
         <v>8303001</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
         <v>22</v>
@@ -1552,10 +1560,10 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
         <v>62</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
       </c>
       <c r="I15">
         <v>14464971</v>
@@ -1564,7 +1572,7 @@
         <v>8101016</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
@@ -1599,10 +1607,10 @@
         <v>18</v>
       </c>
       <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
         <v>65</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
       </c>
       <c r="I16">
         <v>16513182</v>
@@ -1611,7 +1619,7 @@
         <v>8107003</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -1646,10 +1654,10 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
         <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
       </c>
       <c r="I17">
         <v>11184026</v>
@@ -1658,7 +1666,7 @@
         <v>8107005</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
@@ -1693,10 +1701,10 @@
         <v>18</v>
       </c>
       <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
         <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
       </c>
       <c r="I18">
         <v>7796295</v>
@@ -1705,7 +1713,7 @@
         <v>8110014</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
         <v>22</v>
@@ -1740,10 +1748,10 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
         <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
       </c>
       <c r="I19">
         <v>9779159</v>
@@ -1752,7 +1760,7 @@
         <v>8110017</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -1787,10 +1795,10 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
         <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>78</v>
       </c>
       <c r="I20">
         <v>15928873</v>
@@ -1799,7 +1807,7 @@
         <v>8110023</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
@@ -1834,10 +1842,10 @@
         <v>18</v>
       </c>
       <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
         <v>80</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
       </c>
       <c r="I21">
         <v>10540720</v>
@@ -1846,7 +1854,7 @@
         <v>8111007</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s">
         <v>22</v>
@@ -1881,10 +1889,10 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
         <v>83</v>
-      </c>
-      <c r="H22" t="s">
-        <v>84</v>
       </c>
       <c r="I22">
         <v>12078936</v>
@@ -1893,7 +1901,7 @@
         <v>8111013</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s">
         <v>22</v>
@@ -1928,10 +1936,10 @@
         <v>18</v>
       </c>
       <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
         <v>86</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
       </c>
       <c r="I23">
         <v>11702040</v>
@@ -1940,7 +1948,7 @@
         <v>8207001</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
@@ -1975,10 +1983,10 @@
         <v>18</v>
       </c>
       <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
         <v>89</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
       </c>
       <c r="I24">
         <v>16022957</v>
@@ -1987,7 +1995,7 @@
         <v>8301012</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
         <v>22</v>
@@ -2022,10 +2030,10 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
         <v>92</v>
-      </c>
-      <c r="H25" t="s">
-        <v>93</v>
       </c>
       <c r="I25">
         <v>9393448</v>
@@ -2034,7 +2042,7 @@
         <v>8301048</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -2069,10 +2077,10 @@
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26">
         <v>9393448</v>
@@ -2081,7 +2089,7 @@
         <v>8301048</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -2116,16 +2124,19 @@
         <v>18</v>
       </c>
       <c r="G27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
         <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>97</v>
       </c>
       <c r="I27">
         <v>14131849</v>
       </c>
+      <c r="J27">
+        <v>8101098</v>
+      </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
@@ -2160,16 +2171,19 @@
         <v>18</v>
       </c>
       <c r="G28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
         <v>98</v>
-      </c>
-      <c r="H28" t="s">
-        <v>99</v>
       </c>
       <c r="I28">
         <v>16186159</v>
       </c>
+      <c r="J28">
+        <v>8101098</v>
+      </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -2204,16 +2218,19 @@
         <v>18</v>
       </c>
       <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
         <v>100</v>
-      </c>
-      <c r="H29" t="s">
-        <v>101</v>
       </c>
       <c r="I29">
         <v>14209887</v>
       </c>
+      <c r="J29">
+        <v>8101098</v>
+      </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
@@ -2248,16 +2265,19 @@
         <v>18</v>
       </c>
       <c r="G30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" t="s">
         <v>102</v>
-      </c>
-      <c r="H30" t="s">
-        <v>103</v>
       </c>
       <c r="I30">
         <v>15194329</v>
       </c>
+      <c r="J30">
+        <v>8101098</v>
+      </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -2292,16 +2312,19 @@
         <v>18</v>
       </c>
       <c r="G31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" t="s">
         <v>104</v>
-      </c>
-      <c r="H31" t="s">
-        <v>105</v>
       </c>
       <c r="I31">
         <v>12326976</v>
       </c>
+      <c r="J31">
+        <v>8101098</v>
+      </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -2336,16 +2359,19 @@
         <v>18</v>
       </c>
       <c r="G32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" t="s">
         <v>106</v>
-      </c>
-      <c r="H32" t="s">
-        <v>107</v>
       </c>
       <c r="I32">
         <v>11778707</v>
       </c>
+      <c r="J32">
+        <v>8101098</v>
+      </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -2380,16 +2406,19 @@
         <v>18</v>
       </c>
       <c r="G33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" t="s">
         <v>108</v>
-      </c>
-      <c r="H33" t="s">
-        <v>109</v>
       </c>
       <c r="I33">
         <v>13389399</v>
       </c>
+      <c r="J33">
+        <v>8101098</v>
+      </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -2424,16 +2453,19 @@
         <v>18</v>
       </c>
       <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
         <v>110</v>
-      </c>
-      <c r="H34" t="s">
-        <v>111</v>
       </c>
       <c r="I34">
         <v>12495442</v>
       </c>
+      <c r="J34">
+        <v>8101098</v>
+      </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -2468,16 +2500,19 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" t="s">
         <v>112</v>
-      </c>
-      <c r="H35" t="s">
-        <v>113</v>
       </c>
       <c r="I35">
         <v>19814338</v>
       </c>
+      <c r="J35">
+        <v>8101098</v>
+      </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -2512,16 +2547,19 @@
         <v>18</v>
       </c>
       <c r="G36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" t="s">
         <v>114</v>
-      </c>
-      <c r="H36" t="s">
-        <v>115</v>
       </c>
       <c r="I36">
         <v>16153851</v>
       </c>
+      <c r="J36">
+        <v>8101098</v>
+      </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s">
         <v>22</v>
@@ -2556,16 +2594,19 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" t="s">
         <v>116</v>
-      </c>
-      <c r="H37" t="s">
-        <v>117</v>
       </c>
       <c r="I37">
         <v>14030267</v>
       </c>
+      <c r="J37">
+        <v>8101098</v>
+      </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s">
         <v>22</v>
@@ -2600,16 +2641,19 @@
         <v>18</v>
       </c>
       <c r="G38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" t="s">
         <v>118</v>
-      </c>
-      <c r="H38" t="s">
-        <v>119</v>
       </c>
       <c r="I38">
         <v>17615141</v>
       </c>
+      <c r="J38">
+        <v>8101098</v>
+      </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s">
         <v>22</v>
@@ -2644,16 +2688,19 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" t="s">
         <v>120</v>
-      </c>
-      <c r="H39" t="s">
-        <v>121</v>
       </c>
       <c r="I39">
         <v>13724196</v>
       </c>
+      <c r="J39">
+        <v>8101098</v>
+      </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -2688,16 +2735,19 @@
         <v>18</v>
       </c>
       <c r="G40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" t="s">
         <v>122</v>
-      </c>
-      <c r="H40" t="s">
-        <v>123</v>
       </c>
       <c r="I40">
         <v>18685336</v>
       </c>
+      <c r="J40">
+        <v>8101098</v>
+      </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s">
         <v>22</v>
@@ -2732,16 +2782,19 @@
         <v>18</v>
       </c>
       <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
         <v>124</v>
-      </c>
-      <c r="H41" t="s">
-        <v>125</v>
       </c>
       <c r="I41">
         <v>17044830</v>
       </c>
+      <c r="J41">
+        <v>8101098</v>
+      </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s">
         <v>22</v>
@@ -2776,16 +2829,19 @@
         <v>18</v>
       </c>
       <c r="G42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" t="s">
         <v>126</v>
-      </c>
-      <c r="H42" t="s">
-        <v>127</v>
       </c>
       <c r="I42">
         <v>16208676</v>
       </c>
+      <c r="J42">
+        <v>8101098</v>
+      </c>
       <c r="K42" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
@@ -2820,10 +2876,10 @@
         <v>18</v>
       </c>
       <c r="G43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" t="s">
         <v>128</v>
-      </c>
-      <c r="H43" t="s">
-        <v>129</v>
       </c>
       <c r="I43">
         <v>15209941</v>
@@ -2832,7 +2888,7 @@
         <v>8314003</v>
       </c>
       <c r="K43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s">
         <v>22</v>
@@ -2846,24 +2902,15 @@
       <c r="O43" s="1">
         <v>45183.445833333331</v>
       </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
